--- a/1/3/Ratios respecto al PIB 2003 a 2021 - Trimestral.xlsx
+++ b/1/3/Ratios respecto al PIB 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Serie</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4245,7 +4248,7 @@
         <v>10.9</v>
       </c>
       <c r="J62">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="K62">
         <v>0.2</v>
@@ -4273,6 +4276,65 @@
       </c>
       <c r="S62">
         <v>13.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63">
+        <v>33.1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>15.2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>17.5</v>
+      </c>
+      <c r="G63">
+        <v>0.3</v>
+      </c>
+      <c r="H63">
+        <v>33.6</v>
+      </c>
+      <c r="I63">
+        <v>14.7</v>
+      </c>
+      <c r="J63">
+        <v>14.5</v>
+      </c>
+      <c r="K63">
+        <v>0.2</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2.6</v>
+      </c>
+      <c r="O63">
+        <v>14.8</v>
+      </c>
+      <c r="P63">
+        <v>1.5</v>
+      </c>
+      <c r="Q63">
+        <v>-0.6</v>
+      </c>
+      <c r="R63">
+        <v>0.4</v>
+      </c>
+      <c r="S63">
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>
